--- a/biology/Médecine/Arnoult_de_Lisle/Arnoult_de_Lisle.xlsx
+++ b/biology/Médecine/Arnoult_de_Lisle/Arnoult_de_Lisle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arnoult de Lisle (ou parfois Arnould de l'Isle, Arnulphus de Lislo ou Insulanus en latin) est un médecin, diplomate et orientaliste français, né à Paris en 1556, mort également à Paris le 25 novembre 1613.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une famille d'origine allemande (du duché de Clèves) selon Guillaume Du Val (historien-biographe du Collège royal), il se destina à la médecine et fut reçu « maître ès arts » en 1580, bachelier le 20 mars 1584, licencié le 19 mai 1586 et docteur en décembre suivant. La même année, il épousa Damoiselle Catherine Duret, fille de Louis Duret, premier médecin des rois Charles IX et Henri III.
 À cette époque le prestige de la médecine d'Avicenne, quoiqu'en déclin, restait très grand, et l'étude de la langue arabe était liée à celle de la médecine. En 1587, Arnoult de Lisle fut nommé « lecteur et professeur de langue arabique » au Collège royal. Mais à la même époque Guillaume Bérard, médecin et consul de France à Marrakech, auprès du sultan Ahmed al-Mansour, manifesta le désir de rentrer au pays après une mission de plusieurs années, et le souverain marocain demanda qu'il fût remplacé. Arnoult de Lisle sauta sur l'occasion et se fit nommer à ce poste (« proto medico » du sultan en lingua franca). Ayant quitté Paris avant le 17 novembre 1587 (comme l'atteste un registre de la Faculté de médecine), il arriva au Maroc au début de 1588 accompagné de l'apothicaire Pierre Treillaut. Il y resta onze ans (1588-1599), agissant comme consul sans en avoir vraiment le titre. En novembre 1596, il envoya deux étalons arabes, confiés à l'apothicaire Treillaut, en présent au nouveau roi Henri IV.
